--- a/academycity/data/potential/datasets/excel/world_bank/output/all_1960.xlsx
+++ b/academycity/data/potential/datasets/excel/world_bank/output/all_1960.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2516716976751164</v>
+        <v>0.1714456154612416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2264758420411377</v>
+        <v>0.1568953724886488</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2658717336963556</v>
+        <v>0.1808245718035635</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2559807265873902</v>
+        <v>0.1735705579482159</v>
       </c>
     </row>
     <row r="3">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.268043777124803</v>
+        <v>0.1818652797816246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2676011621039465</v>
+        <v>0.1846410700189039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2308551842422853</v>
+        <v>0.1563784741707517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2334998765289652</v>
+        <v>0.1576912184733599</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2600724865613255</v>
+        <v>0.1671256051689653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2596677903085188</v>
+        <v>0.1696926033166847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2389208006342324</v>
+        <v>0.1532836445450314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2413389224959232</v>
+        <v>0.1543663872205553</v>
       </c>
     </row>
     <row r="5">
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2566829067388641</v>
+        <v>0.1808931965433639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2563176500817104</v>
+        <v>0.1836961459159854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2424084894598548</v>
+        <v>0.1705557570183663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2445909537195707</v>
+        <v>0.1715704391001649</v>
       </c>
     </row>
     <row r="6">
@@ -654,16 +654,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2350269661877125</v>
+        <v>0.1463042424985498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236663434508508</v>
+        <v>0.1498189107924143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2622723603623364</v>
+        <v>0.1629990313796902</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2660372389414431</v>
+        <v>0.1648384207084378</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2308316203535691</v>
+        <v>0.152366060546255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231291099161753</v>
+        <v>0.1552558974673628</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2670078875270976</v>
+        <v>0.1759585210825968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2708693929575803</v>
+        <v>0.1779629765492661</v>
       </c>
     </row>
   </sheetData>
@@ -26207,16 +26207,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1163353516478007</v>
+        <v>-0.04948065853469343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7640678552078052</v>
+        <v>-0.4442529444546592</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1908017612770113</v>
+        <v>0.09043069113512935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3103985544214053</v>
+        <v>-0.1616429304712651</v>
       </c>
     </row>
     <row r="3">
@@ -26226,16 +26226,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2526662721925055</v>
+        <v>0.1754053181125854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2566200715519828</v>
+        <v>0.2435346310048093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2212479553718689</v>
+        <v>0.171152976499688</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2694657008836427</v>
+        <v>0.2290404765025972</v>
       </c>
     </row>
     <row r="4">
@@ -26245,16 +26245,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3061175549146999</v>
+        <v>0.2350766879674889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3079975761907358</v>
+        <v>0.323327949543459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1753486582562693</v>
+        <v>0.1500491298231456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.210536210638295</v>
+        <v>0.1979526821791618</v>
       </c>
     </row>
     <row r="5">
@@ -26264,16 +26264,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.318045214842076</v>
+        <v>0.2049638012346286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3187611474340063</v>
+        <v>0.2808201741793084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161705501535505</v>
+        <v>0.1161242182741464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2014881361884127</v>
+        <v>0.1589831295971778</v>
       </c>
     </row>
     <row r="6">
@@ -26283,16 +26283,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2550870876832754</v>
+        <v>0.1956757198479412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2579454410951281</v>
+        <v>0.2704898313359806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2270619404289584</v>
+        <v>0.1940897122855604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2599055307926381</v>
+        <v>0.2441053215706587</v>
       </c>
     </row>
     <row r="7">
@@ -26302,16 +26302,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.239001719234393</v>
+        <v>0.2383591313720494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2391769088593597</v>
+        <v>0.3260803583911019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2502901146729085</v>
+        <v>0.2781532719823303</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2715312572333388</v>
+        <v>0.3315613206216695</v>
       </c>
     </row>
   </sheetData>
